--- a/Testdata/TC_31.xlsx
+++ b/Testdata/TC_31.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE0932JJuJKr3yLVkLO45sh0z2BZW7K3GRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ23GEUTbrO+U7VqVPnVhX07s3MN65IxGgY7FfsLatikMANPRpc7Fdifl61dyrvOqhz4xL/GEd4RjiADZAK2N4No/uVKefzPdO8vr7euq5vhdGFWbMs23zS743cKZnhKg0Yx4FLKqmU93apioNa3qxPOPYwx0pyv9IddbdahLptoPVxgC9ItNWMGQ0IY52AU04JE5IRwZy02v3vqI05ta2dLRuZK/QM2Yyp7ylcAanoGgfLkjGdEadm2btVa7dat8fWzp5t79VAzrbfTwRTIOphxkckuqKuJIw4ns2luLVbt60d267tIHMtCObKDOCgge8NyRVlxGsR32elLGLqA2y4HHZdzpgWMnOyeqKHq3AY4fl0TLlPyqkx7DeNWaB1ySZx0EEYERfs9yCVjsj1INJmHc97wB1PacQXbbwoPdcJI9FgLoxUTtRB7TDgDZ9E/GQOZ008cAVgODyKCTLvYWZCbcpc+KZBTDznHPssL1RgotMwumRz7JIjiGNTzHEd+CH2wOE4ZZy62aIrDHQchXOYERZvhr53ALNq8BpGOnM3ABOLZZtheJlpt46J5KnK84UznWGewFfoaDQNrweBvxjFE+ZGdEK8djNBr+UhEZBauhUzHs5Ai4yEFC1HWcA/CMBlMmoTl86wf+yDEZlTh1kKBNSIeXhOeSv041nAEp2WqOgUdjQmN+kO0zEawOEGwuhh0A0SvDLzWlZRYBhep2uuMqQRcuQGc5PjXmUsg9tAS45vlSNPROzygPpQH/JnkaMWvWI0JYSvdQnFQSIVHoiK4zQXR/FsAuE1gRi7kqsyZGZ8BH4Kvg56ORZUkar8GVvWnvwBPVI26gTe/biEiWC53FqODbwlEoI9+U0fB5dAPaV8etRI9rKGg5QF7sWv8hBE7tzHC0lOrZSnoW7g+rFHVELoBufSRYVu6lDvZaMVUg9i3EE4WIwXc8jLjO5x+NivQKXeYzyCXqDiuGEc8GghMgcyNfRtMiyeBHIB7G8scx6R78fQgiwO4sBthd7mq3nKOicB5ZtrGMaRSoebi0jricwYszYROUYm/Y3l3TJ7YlEp+CwgszCg7ubWBiML7b0HbIQlUbWxBFHxtTHeh7quyp6I9Y3FIugfodCVWqbBWOhS6aw6PLycvHlPyLTJOY596N04lNiLNPcuk1GDXS5j8iR0EvlJBnREZ8ygNXa92ZYLzYNo/7bccCYIJnSkpyNk5vGiA3JJJ7jo4eAihh4jzSvL9DT/ivo4jnDAxHbSlmIpFa8HoSRPqVbHUclrEEtHUMkrBC4yl3BoTGbzMMJ+HwxDD7Tb6X4JWpE+5lM9gtrmEzcxspmJplJFzRLF3waTRUptQwS8TpNLRAkSe1FNeIbJaEjssg9h6bewTyeRyqpJKV/HgwPLmsMk/4rNlWwUkzOAixhU32+ThejOs4GmS5e1E4ZyYJFIndHw0W5t26rXoLMRYyR3PCTYNzoQzJwY3eCKMD4DsT1jSBj14Itif894j0wIhSIoTaTLUGnpvBw6SPK8VKUB+hYpRQD0GxcUysgqMOVkAs4ZwZG/yAHVVnuhC7i7H//79jfPX7347O6jp2+++OF///GrV//82e2zH8HH3V//dvvxL9U2FRiN8cQnUqFxc3fXqj8CP0tJSBjXlK2xF7tc0s7OZEecjpG+2MlBq9NtHfaaMp+kxERclRRT3BkXYZwNR2oTciF5pGbiCQrijJP8pMcFbq5EOeIOd0WK6Dz/PkFli9cvP3v98s/3SmuDZb2W/fjxdtWuvbUVg9uwvYJLW7FeoQYI8KOqtV2t1XLgJQwaqgKQ2qnrOXDZfmzV6pad5nIvdeR1oGWWnmmML8wlOUVqqfYodYH8OGFKxx9DiKRsFQq5gXbRL37y5i9PCyhtXU0pzgLKyTZGLGYmAzn10XBsjAYnw1bHGHdGwk8yXg6nJv8asF49jaeCUwVBjP1vGVDcoZgZFbgRVYzw3CDYnRoLiMRcHBacbR1VLfTAKZe1PIzCeK5OJCeQUdcg02yyVmJNrpE8ac+VpJOx1sCVrrd//3ydgN5IO2to0/ePPA0VOIqU4+uo/fRfr7788NWLF3fPf3775Q8KM+h10mcB8HOIpvwwdXtIebreLFHQ6Uga89L6bq6+aKK4SB2HNODMsXfkHUqPEIjaYjb5G3VnUPLkxNJeQF+ioPcw69xwHdjOETKLBNBzjqHahtndMyWoHJ7Z9T+//d3drz+/++T5mw//dPvRH28//uT1y9+/efYHFXV3T5/f/fSZzvLLhUDqIm60qgk05PuIa4hoNETtNr764BdGEHIDWg4jlhnpqw8+zU0mFJXNSTYztHSpIkUVVqB5YSFn5FRJdSjIpSKqAWiJElZPEbqIhXPqZou8XxVTibiTjG90x9WYESOEbuqbsJMiOBPeVE6LqJJ6/I5Vs2uaq7QRW5hgljP9oR9OoMlIGPIBYglSkPp6gQwr1zvsDZqNXgZRSgwij0TCDdUHSlpKUVK6LBklrpajABcaPzf2xZvRCmyVlc6cS2Omfnw5b3gi/a1/qiggUCuOItUQBfotfxTPoRlOnuju58tny1z/e6R61XxHnI277SIfxjkuFMIiWxAkX6YmzVJpqsvEO49qZ4+EabIh8ApPnWAO/VyvOq0r6CsjU+SdThSF0drkk3ESWB86acgoZmbxFCPPVHXdXnZWCSFJeOmHuvnpHYZt4hNe7i3bzKT74dWDZeHsy4p22cD3tDHLXT1Ss2QT5B/0haP8v+/5ytkaUQSNlXgALP0An1xch3DfLamN2ooUFDdAWF2/kB/QiPEnIhPoL0U5SylnqkN9Ii5c6kOOz5z6tiIAwMzPbhbUTEKXqz+rhH6PzmjJa6GVxHdxErDlfK5auG45TxGl5YjcQIOZmwGS4uR7UDbUO0qZ2ZTDQi5N5cXbJaMXU15WsXcmmHhkYlXdCalVH3nWbvUxIfWqbcP/2K3VLGtbvHzqySFzUHJdchEzObDsz53O/wCVItJ1Jx0AAA==</t>
+          <t>IB8AAB+LCAAAAAAAAAOlWVlvI8cR/isDPiVAqDkoaSWhNQYvrYlQoiBS0covwXCmKXU07GGmeyTxzQFsOHAcBEGwDpwTeXIQIJtFYgPObo7/Yqy0m6f8hVQfc5GUV6MsBOx0VX3d1dV1dRO9cz0NjUscMxLR3Zq9ZtUMTP0oIPRst5bwSd3erL3jou61j8NDL/ammIOwASjKdq4Z2a2dcz7bMc2rq6u1q8ZaFJ+ZjmXZ5pP9/tA/x1OvTijjHvVxLUMFb0fVXNQOpvuYe4HHPYXcrfWGvbU2Jn4HaPse9c5wvNZKGKGYsS7lhBPMBDLGHsftzv731MZcZ21zzUbmEj2XbCUkDJRcSVLRtRwsi0dkil3Hcqy6tVV31ke2vdPY3LEaa5vO5nspMBNEfY/xIY4viS8JQ+5NZxJubTnrtt3YtBrIXCkEc+UGcNEgDI7wJWE4aOMwZJUsYuoDbPocdl3NmBYyC1g90cNVeBx7s/MR4SGuCt+LYuyDoR609gG+GsTafqNZH7ijcxLzecebV57rmOF4MBPWqAZ1USeivBnimB/P4FBxAGcODJfHCUbmHcwc1CHMh29CExy4Ey9kRVCJiU6i+ILNPB8fQMCaYo4rGkZeAJ7FCePEzxddYqDDOJrBjLB4KwqDPZhVC69gZDP3KJhYLNuKootcu1VMJH1AegOc6dTjqfgSHQ3Po6sBDefDZMz8mIxx0Gml0it5SESeRrcTxqMpaJGTkKIVKHP4B5G2SEYd7JOpFx6GYETmQoyWCaiZ8GhCeDsKkyllqU4LVHQCOxrh62yH2RgN4HCpMHpEezSVV2ZeySoDjqKrbM1lhjRCgdxkfnrcy4xF4Q7Q0uNb5sgTEbvcIyEUguJZFKhlrxieY8xXuoTiIJHz9kRpcVvzg2Q6hvAaQ4xdylUZMnM+Aj8FXwe9XAvKRV3+jSxrR/6BHhkbdWlwt1zKRLBcYS3XBt4CCcGewlbo0QugnhB+ftBM97KCg5QF7pRf5iGI3FnozSU5s1KRhnrUD5MAq4TQoxPpokI3dah3stESqQ8x7iKPzkfzGSRgRnY4fOzWoCTvMB5D0a+5fpRQHs9F5kCmFn0bhiVjKhfwwntjJjH+YQK9xnwvoX47Cu6/WqCsc0wJv7+GURKrdHh/iLSeyIwJ62CRY2TSvzfer7InFlcSn1I8jSjx729tMLLQPnjARlgaVfdGYBVf95YPoa6rsidi/d6wGBpFKHSVlmkyFvlEOqsOj6CAN+8ImQ6eeEkITRqHEnuW5d5FMmqyi0WZIgkdx2GaAV3RAjPogf1guuZD8yD6vDU/mgqCCa3nyRCZRXnRAfm4S8/6Hj1LoMfI8soiPcu/oj6OYo8ysZ2spVhIxauFUJqnVKvjquQ1SKQjqOQVAReZC3JohKezKPbCfTAM2dNup/slaEX2PX6uR1DbQuynRjZzaIYqa5Yq/jYxWaTUNkTA6zS5QJRCYi+q285lchoSu9yHsAzbXkjGscqqaSlfxYMDy5vDNP+KzVVsFNMzgBsXVN/v4rlow/OBpkuXtVOGcmCRSN3h0fqWs2E1HOhsxBjJHR9hLzS6EMwcGz16iRmfAmzHOMKMBPBFvHDHeBePMYEiKE2ky1BldBGH9tI8L1Vpgr5lSlkA+o0zAmVkWTDj5AD3FHtxOC8Iqq32Ix/kbn/875vfPH/14vPbj5+++fKD//7jV6/++bObZx/Cx+1f/3bzyS/VNpUwGnnjEEuFRq2tLauxDn6WkZAwrilb4yDxuaSdnsqOOBsjfYOTg3a3137cb8l8khFTuCopprgczqMkHw7VJuRC8kjN1BOUiDtK85Mel7iFEuWKy9olLksX+XcBlS1ev/z89cs/34nWBst7LXt7e6NuO29txRzLtpfkslasX6oBQni9bm3UHacgvCCDjlQByOzUC9yGbW1bTsOys1weZI68SmiRpWcaeWfmAk6R2qo9ylygOE6Z0vFHECIZW4VCYaBd9MufvPnL05KUtq6mlGcB5WQbIxYz04Gc+uBoZAwHx0ftrjHqDoWf5LyCnJr8G4T16lk8lZyK0sQLv2NAcYdiZtTgRlQzoomBPf/cmEMkFuKw5GyrqGqhB065qOXjOEpm6kQKgJy6QjLLJisRK3KN5El7LiWdnLVCXOl68/cvVgH0Rjp5Q+se7beMKc38UtJQiaNIBb6O2s/+9eqrj169eHH7/Oc3X/2oNINeJ3sWAD+HaCoOM7eHlKfrzQIFnQylMS+s7xfqiyaKi9RhRChnrr0p71B6hABqi9nk/6g3hZInJ5b2AvoCBb3rse4114HtHiCzTAA9Zx5U2yi/e2YElcNzu/7nt7+7/fUXt58+f/PRn24+/uPNJ5++fvn7N8/+oKLu9unz258+01l+sRBIXcSNVjWBhnwf8Q0RjYao3cbX7//CoBE3oOUwEpmRvn7/s8JkQlHZnOQzQ0uXKVJWYUm0CBY4o6BKpkMJl0FUA9AWJayRSegiFs2Iny/yXl1MJeJOMr7VG9UTho0Iuqlvw07Kwjn4vjgNUSX18JHl2I7mKm3EFsYeK5j+cRiNoclIGfIBYkGkhPpmQC4r13vcH7Sa/VxEKTGIAxwLN1QfqMfSpjJ1rwIFuNDs+Uko3omWxJZZKP0qpC5TP7hMmoFIeaufJ0oSqJ3EsWqCqH6oHyYzaIDTZ7m7+fKpstDzHqj+tNgF5+Nep8yHcYELxa/MFgTJl+lIs1Rq6jHxtqNa2ANhmnwIvNLzJphDv8Wr7uoSesnYFLmmG8dRvDLh5JxUbB+6Z8giZm7xTMYUS6pOO8jPKiWkSS77ULc9vcOog0PMKz9Up+j96PLBWDj7qtAeG4SBNma160ZmlnyC4mu9cJSqyjTjGNom8bxX+Xm9T+hFr9ruXbvxaONRYPuPnGDT9xvjdXsyCSbrEyvYCJzJNjSOclJx+xRTiJuLuLtVXASZZXh+zz6Cm3fF2ZSBJVDcRcFSMiB1Ys/GaI/EjD8RKUp/KcppRjlVrfMToZ/6kONTt7GhCCBgFhczS1qn+YWrH3aisE+mpOJ91UqTUHkScIPZTPWWVQ8Uat4BvobOtzADZOvxD6CeqQeeKrOpqIIkn+HTuYbJuPJ0Zgo+BL5wrIehuwH0ZQ9Hy59JSPh/KCA7r4dO0aOMnJ3zqufqbG838CZ26s7E9+vrMKhDNR7XA2+ybVvWpBFsOOJFW08O1YHgq4qLiJpCGNwrquPMhd+53f8BuRXClyAfAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
     </row>
     <row r="22">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2BF2C41-AF4B-42FB-92BE-93483276EC67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_31.xlsx
+++ b/Testdata/TC_31.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>IB8AAB+LCAAAAAAAAAOlWVlvI8cR/isDPiVAqDkoaSWhNQYvrYlQoiBS0covwXCmKXU07GGmeyTxzQFsOHAcBEGwDpwTeXIQIJtFYgPObo7/Yqy0m6f8hVQfc5GUV6MsBOx0VX3d1dV1dRO9cz0NjUscMxLR3Zq9ZtUMTP0oIPRst5bwSd3erL3jou61j8NDL/ammIOwASjKdq4Z2a2dcz7bMc2rq6u1q8ZaFJ+ZjmXZ5pP9/tA/x1OvTijjHvVxLUMFb0fVXNQOpvuYe4HHPYXcrfWGvbU2Jn4HaPse9c5wvNZKGKGYsS7lhBPMBDLGHsftzv731MZcZ21zzUbmEj2XbCUkDJRcSVLRtRwsi0dkil3Hcqy6tVV31ke2vdPY3LEaa5vO5nspMBNEfY/xIY4viS8JQ+5NZxJubTnrtt3YtBrIXCkEc+UGcNEgDI7wJWE4aOMwZJUsYuoDbPocdl3NmBYyC1g90cNVeBx7s/MR4SGuCt+LYuyDoR609gG+GsTafqNZH7ijcxLzecebV57rmOF4MBPWqAZ1USeivBnimB/P4FBxAGcODJfHCUbmHcwc1CHMh29CExy4Ey9kRVCJiU6i+ILNPB8fQMCaYo4rGkZeAJ7FCePEzxddYqDDOJrBjLB4KwqDPZhVC69gZDP3KJhYLNuKootcu1VMJH1AegOc6dTjqfgSHQ3Po6sBDefDZMz8mIxx0Gml0it5SESeRrcTxqMpaJGTkKIVKHP4B5G2SEYd7JOpFx6GYETmQoyWCaiZ8GhCeDsKkyllqU4LVHQCOxrh62yH2RgN4HCpMHpEezSVV2ZeySoDjqKrbM1lhjRCgdxkfnrcy4xF4Q7Q0uNb5sgTEbvcIyEUguJZFKhlrxieY8xXuoTiIJHz9kRpcVvzg2Q6hvAaQ4xdylUZMnM+Aj8FXwe9XAvKRV3+jSxrR/6BHhkbdWlwt1zKRLBcYS3XBt4CCcGewlbo0QugnhB+ftBM97KCg5QF7pRf5iGI3FnozSU5s1KRhnrUD5MAq4TQoxPpokI3dah3stESqQ8x7iKPzkfzGSRgRnY4fOzWoCTvMB5D0a+5fpRQHs9F5kCmFn0bhiVjKhfwwntjJjH+YQK9xnwvoX47Cu6/WqCsc0wJv7+GURKrdHh/iLSeyIwJ62CRY2TSvzfer7InFlcSn1I8jSjx729tMLLQPnjARlgaVfdGYBVf95YPoa6rsidi/d6wGBpFKHSVlmkyFvlEOqsOj6CAN+8ImQ6eeEkITRqHEnuW5d5FMmqyi0WZIgkdx2GaAV3RAjPogf1guuZD8yD6vDU/mgqCCa3nyRCZRXnRAfm4S8/6Hj1LoMfI8soiPcu/oj6OYo8ysZ2spVhIxauFUJqnVKvjquQ1SKQjqOQVAReZC3JohKezKPbCfTAM2dNup/slaEX2PX6uR1DbQuynRjZzaIYqa5Yq/jYxWaTUNkTA6zS5QJRCYi+q285lchoSu9yHsAzbXkjGscqqaSlfxYMDy5vDNP+KzVVsFNMzgBsXVN/v4rlow/OBpkuXtVOGcmCRSN3h0fqWs2E1HOhsxBjJHR9hLzS6EMwcGz16iRmfAmzHOMKMBPBFvHDHeBePMYEiKE2ky1BldBGH9tI8L1Vpgr5lSlkA+o0zAmVkWTDj5AD3FHtxOC8Iqq32Ix/kbn/875vfPH/14vPbj5+++fKD//7jV6/++bObZx/Cx+1f/3bzyS/VNpUwGnnjEEuFRq2tLauxDn6WkZAwrilb4yDxuaSdnsqOOBsjfYOTg3a3137cb8l8khFTuCopprgczqMkHw7VJuRC8kjN1BOUiDtK85Mel7iFEuWKy9olLksX+XcBlS1ev/z89cs/34nWBst7LXt7e6NuO29txRzLtpfkslasX6oBQni9bm3UHacgvCCDjlQByOzUC9yGbW1bTsOys1weZI68SmiRpWcaeWfmAk6R2qo9ylygOE6Z0vFHECIZW4VCYaBd9MufvPnL05KUtq6mlGcB5WQbIxYz04Gc+uBoZAwHx0ftrjHqDoWf5LyCnJr8G4T16lk8lZyK0sQLv2NAcYdiZtTgRlQzoomBPf/cmEMkFuKw5GyrqGqhB065qOXjOEpm6kQKgJy6QjLLJisRK3KN5El7LiWdnLVCXOl68/cvVgH0Rjp5Q+se7beMKc38UtJQiaNIBb6O2s/+9eqrj169eHH7/Oc3X/2oNINeJ3sWAD+HaCoOM7eHlKfrzQIFnQylMS+s7xfqiyaKi9RhRChnrr0p71B6hABqi9nk/6g3hZInJ5b2AvoCBb3rse4114HtHiCzTAA9Zx5U2yi/e2YElcNzu/7nt7+7/fUXt58+f/PRn24+/uPNJ5++fvn7N8/+oKLu9unz258+01l+sRBIXcSNVjWBhnwf8Q0RjYao3cbX7//CoBE3oOUwEpmRvn7/s8JkQlHZnOQzQ0uXKVJWYUm0CBY4o6BKpkMJl0FUA9AWJayRSegiFs2Iny/yXl1MJeJOMr7VG9UTho0Iuqlvw07Kwjn4vjgNUSX18JHl2I7mKm3EFsYeK5j+cRiNoclIGfIBYkGkhPpmQC4r13vcH7Sa/VxEKTGIAxwLN1QfqMfSpjJ1rwIFuNDs+Uko3omWxJZZKP0qpC5TP7hMmoFIeaufJ0oSqJ3EsWqCqH6oHyYzaIDTZ7m7+fKpstDzHqj+tNgF5+Nep8yHcYELxa/MFgTJl+lIs1Rq6jHxtqNa2ANhmnwIvNLzJphDv8Wr7uoSesnYFLmmG8dRvDLh5JxUbB+6Z8giZm7xTMYUS6pOO8jPKiWkSS77ULc9vcOog0PMKz9Up+j96PLBWDj7qtAeG4SBNma160ZmlnyC4mu9cJSqyjTjGNom8bxX+Xm9T+hFr9ruXbvxaONRYPuPnGDT9xvjdXsyCSbrEyvYCJzJNjSOclJx+xRTiJuLuLtVXASZZXh+zz6Cm3fF2ZSBJVDcRcFSMiB1Ys/GaI/EjD8RKUp/KcppRjlVrfMToZ/6kONTt7GhCCBgFhczS1qn+YWrH3aisE+mpOJ91UqTUHkScIPZTPWWVQ8Uat4BvobOtzADZOvxD6CeqQeeKrOpqIIkn+HTuYbJuPJ0Zgo+BL5wrIehuwH0ZQ9Hy59JSPh/KCA7r4dO0aOMnJ3zqufqbG838CZ26s7E9+vrMKhDNR7XA2+ybVvWpBFsOOJFW08O1YHgq4qLiJpCGNwrquPMhd+53f8BuRXClyAfAAA=</t>
+          <t>Jx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE0932JJuJKr3yLVkLO45sh0z2BZW7K3GRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ23GEUTbrO+U7VqVPnVhX07s3MN65IxGgY7FfsLatikMANPRpc7Fdifl61dyrvOqhz4xL/GEd4RjiADZAK2N4No/uVKefzPdO8vr7euq5vhdGFWbMs23zS743cKZnhKg0Yx4FLKqmU93apioNa3qxPOPYwx0pyv9IddbdahLptoPVxgC9ItNWMGQ0IY52AU04JE5IRwZy02v3vqI05ta2dLRuZK/QM2Yyp7ylcAanoGgfLkjGdEadm2btVa7dat8fWzp5t79VAzrbfTwRTIOphxkckuqKuJIw4ns2luLVbt60d267tIHMtCObKDOCgge8NyRVlxGsR32elLGLqA2y4HHZdzpgWMnOyeqKHq3AY4fl0TLlPyqkx7DeNWaB1ySZx0EEYERfs9yCVjsj1INJmHc97wB1PacQXbbwoPdcJI9FgLoxUTtRB7TDgDZ9E/GQOZ008cAVgODyKCTLvYWZCbcpc+KZBTDznHPssL1RgotMwumRz7JIjiGNTzHEd+CH2wOE4ZZy62aIrDHQchXOYERZvhr53ALNq8BpGOnM3ABOLZZtheJlpt46J5KnK84UznWGewFfoaDQNrweBvxjFE+ZGdEK8djNBr+UhEZBauhUzHs5Ai4yEFC1HWcA/CMBlMmoTl86wf+yDEZlTh1kKBNSIeXhOeSv041nAEp2WqOgUdjQmN+kO0zEawOEGwuhh0A0SvDLzWlZRYBhep2uuMqQRcuQGc5PjXmUsg9tAS45vlSNPROzygPpQH/JnkaMWvWI0JYSvdQnFQSIVHoiK4zQXR/FsAuE1gRi7kqsyZGZ8BH4Kvg56ORZUkar8GVvWnvwBPVI26gTe/biEiWC53FqODbwlEoI9+U0fB5dAPaV8etRI9rKGg5QF7sWv8hBE7tzHC0lOrZSnoW7g+rFHVELoBufSRYVu6lDvZaMVUg9i3EE4WIwXc8jLjO5x+NivQKXeYzyCXqDiuGEc8GghMgcyNfRtMiyeBHIB7G8scx6R78fQgiwO4sBthd7mq3nKOicB5ZtrGMaRSoebi0jricwYszYROUYm/Y3l3TJ7YlEp+CwgszCg7ubWBiML7b0HbIQlUbWxBFHxtTHeh7quyp6I9Y3FIugfodCVWqbBWOhS6aw6PLycvHlPyLTJOY596N04lNiLNPcuk1GDXS5j8iR0EvlJBnREZ8ygNXa92ZYLzYNo/7bccCYIJnSkpyNk5vGiA3JJJ7jo4eAihh4jzSvL9DT/ivo4jnDAxHbSlmIpFa8HoSRPqVbHUclrEEtHUMkrBC4yl3BoTGbzMMJ+HwxDD7Tb6X4JWpE+5lM9gtrmEzcxspmJplJFzRLF3waTRUptQwS8TpNLRAkSe1FNeIbJaEjssg9h6bewTyeRyqpJKV/HgwPLmsMk/4rNlWwUkzOAixhU32+ThejOs4GmS5e1E4ZyYJFIndHw0W5t26rXoLMRYyR3PCTYNzoQzJwY3eCKMD4DsT1jSBj14Itif894j0wIhSIoTaTLUGnpvBw6SPK8VKUB+hYpRQD0GxcUysgqMOVkAs4ZwZG/yAHVVnuhC7i7H//79jfPX7347O6jp2+++OF///GrV//82e2zH8HH3V//dvvxL9U2FRiN8cQnUqFxc3fXqj8CP0tJSBjXlK2xF7tc0s7OZEecjpG+2MlBq9NtHfaaMp+kxERclRRT3BkXYZwNR2oTciF5pGbiCQrijJP8pMcFbq5EOeIOd0WK6Dz/PkFli9cvP3v98s/3SmuDZb2W/fjxdtWuvbUVg9uwvYJLW7FeoQYI8KOqtV2t1XLgJQwaqgKQ2qnrOXDZfmzV6pad5nIvdeR1oGWWnmmML8wlOUVqqfYodYH8OGFKxx9DiKRsFQq5gXbRL37y5i9PCyhtXU0pzgLKyTZGLGYmAzn10XBsjAYnw1bHGHdGwk8yXg6nJv8asF49jaeCUwVBjP1vGVDcoZgZFbgRVYzw3CDYnRoLiMRcHBacbR1VLfTAKZe1PIzCeK5OJCeQUdcg02yyVmJNrpE8ac+VpJOx1sCVrrd//3ydgN5IO2to0/ePPA0VOIqU4+uo/fRfr7788NWLF3fPf3775Q8KM+h10mcB8HOIpvwwdXtIebreLFHQ6Uga89L6bq6+aKK4SB2HNODMsXfkHUqPEIjaYjb5G3VnUPLkxNJeQF+ioPcw69xwHdjOETKLBNBzjqHahtndMyWoHJ7Z9T+//d3drz+/++T5mw//dPvRH28//uT1y9+/efYHFXV3T5/f/fSZzvLLhUDqIm60qgk05PuIa4hoNETtNr764BdGEHIDWg4jlhnpqw8+zU0mFJXNSTYztHSpIkUVVqB5YSFn5FRJdSjIpSKqAWiJElZPEbqIhXPqZou8XxVTibiTjG90x9WYESOEbuqbsJMiOBPeVE6LqJJ6/I5Vs2uaq7QRW5hgljP9oR9OoMlIGPIBYglSkPp6gQwr1zvsDZqNXgZRSgwij0TCDdUHSlpKUVK6LBklrpajABcaPzf2xZvRCmyVlc6cS2Omfnw5b3gi/a1/qiggUCuOItUQBfotfxTPoRlOnuju58tny1z/e6R61XxHnI277SIfxjkuFMIiWxAkX6YmzVJpqsvEO49qZ4+EabIh8ApPnWAO/VyvOq0r6CsjU+SdThSF0drkk3ESWB86acgoZmbxFCPPVHXdXnZWCSFJeOmHuvnpHYZt4hNe7i3bzKT74dWDZeHsy4p22cD3tDHLXT1Ss2QT5B/0haP8v+/5ytkaUQSNlXgALP0An1xch3DfLamN2ooUFDdAWF2/kB/QiPEnIhPoL0U5SylnqkN9Ii5c6kOOz5z6tiIAwMzPbhbUTEKXqz+rhH6PzmjJa6GVxHdxErDlfK5auG45TxGl5YjcQIOZmwGS4uR7UDbUO0qZ2ZTDQi5N5cXbJaMXU15WsXcmmHhkYlXdCalVH3nWbvUxIfWqbcP/2K3VLGtbvHzqySFzUHJdchEzObDsz53O/wCVItJ1Jx0AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
     </row>
     <row r="22">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2BF2C41-AF4B-42FB-92BE-93483276EC67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>